--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Agrn-Atp1a3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H2">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I2">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J2">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.012411</v>
+        <v>0.1537606666666667</v>
       </c>
       <c r="N2">
-        <v>0.037233</v>
+        <v>0.461282</v>
       </c>
       <c r="O2">
-        <v>0.0001734784643863198</v>
+        <v>0.002000314251961297</v>
       </c>
       <c r="P2">
-        <v>0.0001734784643863198</v>
+        <v>0.002000314251961298</v>
       </c>
       <c r="Q2">
-        <v>0.211654107798</v>
+        <v>2.368972037546222</v>
       </c>
       <c r="R2">
-        <v>1.904886970182</v>
+        <v>21.320748337916</v>
       </c>
       <c r="S2">
-        <v>6.073977530751238E-05</v>
+        <v>0.0008285186167622133</v>
       </c>
       <c r="T2">
-        <v>6.073977530751239E-05</v>
+        <v>0.0008285186167622138</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H3">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I3">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J3">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.264115</v>
       </c>
       <c r="O3">
-        <v>0.001230582134702894</v>
+        <v>0.001145314576889534</v>
       </c>
       <c r="P3">
-        <v>0.001230582134702894</v>
+        <v>0.001145314576889534</v>
       </c>
       <c r="Q3">
-        <v>1.501383844467778</v>
+        <v>1.356395978374444</v>
       </c>
       <c r="R3">
-        <v>13.51245460021</v>
+        <v>12.20756380537</v>
       </c>
       <c r="S3">
-        <v>0.0004308620244230557</v>
+        <v>0.0004743826866562146</v>
       </c>
       <c r="T3">
-        <v>0.0004308620244230557</v>
+        <v>0.0004743826866562148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H4">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I4">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J4">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.739774</v>
+        <v>19.577676</v>
       </c>
       <c r="N4">
-        <v>62.219322</v>
+        <v>58.733028</v>
       </c>
       <c r="O4">
-        <v>0.2898963939440272</v>
+        <v>0.2546913015665947</v>
       </c>
       <c r="P4">
-        <v>0.2898963939440272</v>
+        <v>0.2546913015665947</v>
       </c>
       <c r="Q4">
-        <v>353.690948505532</v>
+        <v>301.630891759096</v>
       </c>
       <c r="R4">
-        <v>3183.218536549788</v>
+        <v>2714.678025831864</v>
       </c>
       <c r="S4">
-        <v>0.1015010243081611</v>
+        <v>0.1054916669560407</v>
       </c>
       <c r="T4">
-        <v>0.1015010243081611</v>
+        <v>0.1054916669560407</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H5">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I5">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J5">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07433466666666666</v>
+        <v>0.01419366666666667</v>
       </c>
       <c r="N5">
-        <v>0.223004</v>
+        <v>0.042581</v>
       </c>
       <c r="O5">
-        <v>0.001039035035372032</v>
+        <v>0.0001846492626262546</v>
       </c>
       <c r="P5">
-        <v>0.001039035035372032</v>
+        <v>0.0001846492626262547</v>
       </c>
       <c r="Q5">
-        <v>1.267684920779556</v>
+        <v>0.2186801096308889</v>
       </c>
       <c r="R5">
-        <v>11.409164287016</v>
+        <v>1.968120986678</v>
       </c>
       <c r="S5">
-        <v>0.0003637959029000212</v>
+        <v>7.648065873012996E-05</v>
       </c>
       <c r="T5">
-        <v>0.0003637959029000212</v>
+        <v>7.648065873012999E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H6">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I6">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J6">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.06110666666667</v>
+        <v>34.74617266666667</v>
       </c>
       <c r="N6">
-        <v>93.18332000000001</v>
+        <v>104.238518</v>
       </c>
       <c r="O6">
-        <v>0.4341659082002268</v>
+        <v>0.4520223922865497</v>
       </c>
       <c r="P6">
-        <v>0.4341659082002268</v>
+        <v>0.4520223922865497</v>
       </c>
       <c r="Q6">
-        <v>529.7083892314756</v>
+        <v>535.3300895704981</v>
       </c>
       <c r="R6">
-        <v>4767.375503083281</v>
+        <v>4817.970806134484</v>
       </c>
       <c r="S6">
-        <v>0.1520139102196446</v>
+        <v>0.1872250656793525</v>
       </c>
       <c r="T6">
-        <v>0.1520139102196446</v>
+        <v>0.1872250656793526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.05375133333333</v>
+        <v>15.40687933333333</v>
       </c>
       <c r="H7">
-        <v>51.16125400000001</v>
+        <v>46.22063799999999</v>
       </c>
       <c r="I7">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068992</v>
       </c>
       <c r="J7">
-        <v>0.3501286198398134</v>
+        <v>0.4141942277068993</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.56635666666667</v>
+        <v>22.288414</v>
       </c>
       <c r="N7">
-        <v>58.69907</v>
+        <v>66.86524199999999</v>
       </c>
       <c r="O7">
-        <v>0.2734946022212847</v>
+        <v>0.2899560280553785</v>
       </c>
       <c r="P7">
-        <v>0.2734946022212847</v>
+        <v>0.2899560280553785</v>
       </c>
       <c r="Q7">
-        <v>333.6797810926423</v>
+        <v>343.3949050293772</v>
       </c>
       <c r="R7">
-        <v>3003.11802983378</v>
+        <v>3090.554145264395</v>
       </c>
       <c r="S7">
-        <v>0.0957582876093772</v>
+        <v>0.1200981131093575</v>
       </c>
       <c r="T7">
-        <v>0.09575828760937717</v>
+        <v>0.1200981131093575</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.111053</v>
       </c>
       <c r="I8">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J8">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.012411</v>
+        <v>0.1537606666666667</v>
       </c>
       <c r="N8">
-        <v>0.037233</v>
+        <v>0.461282</v>
       </c>
       <c r="O8">
-        <v>0.0001734784643863198</v>
+        <v>0.002000314251961297</v>
       </c>
       <c r="P8">
-        <v>0.0001734784643863198</v>
+        <v>0.002000314251961298</v>
       </c>
       <c r="Q8">
-        <v>0.037692426261</v>
+        <v>0.4669738611051112</v>
       </c>
       <c r="R8">
-        <v>0.339231836349</v>
+        <v>4.202764749946001</v>
       </c>
       <c r="S8">
-        <v>1.081684416951228E-05</v>
+        <v>0.0001633183217593668</v>
       </c>
       <c r="T8">
-        <v>1.081684416951228E-05</v>
+        <v>0.0001633183217593669</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.111053</v>
       </c>
       <c r="I9">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J9">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.264115</v>
       </c>
       <c r="O9">
-        <v>0.001230582134702894</v>
+        <v>0.001145314576889534</v>
       </c>
       <c r="P9">
-        <v>0.001230582134702894</v>
+        <v>0.001145314576889534</v>
       </c>
       <c r="Q9">
         <v>0.2673739736772222</v>
@@ -1013,10 +1013,10 @@
         <v>2.406365763095</v>
       </c>
       <c r="S9">
-        <v>7.673007272663322E-05</v>
+        <v>9.35107343262368E-05</v>
       </c>
       <c r="T9">
-        <v>7.673007272663319E-05</v>
+        <v>9.351073432623683E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.111053</v>
       </c>
       <c r="I10">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J10">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.739774</v>
+        <v>19.577676</v>
       </c>
       <c r="N10">
-        <v>62.219322</v>
+        <v>58.733028</v>
       </c>
       <c r="O10">
-        <v>0.2898963939440272</v>
+        <v>0.2546913015665947</v>
       </c>
       <c r="P10">
-        <v>0.2898963939440272</v>
+        <v>0.2546913015665947</v>
       </c>
       <c r="Q10">
-        <v>62.987060040674</v>
+        <v>59.457747884276</v>
       </c>
       <c r="R10">
-        <v>566.883540366066</v>
+        <v>535.119730958484</v>
       </c>
       <c r="S10">
-        <v>0.01807581205937493</v>
+        <v>0.02079461059570046</v>
       </c>
       <c r="T10">
-        <v>0.01807581205937493</v>
+        <v>0.02079461059570047</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>9.111053</v>
       </c>
       <c r="I11">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J11">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.07433466666666666</v>
+        <v>0.01419366666666667</v>
       </c>
       <c r="N11">
-        <v>0.223004</v>
+        <v>0.042581</v>
       </c>
       <c r="O11">
-        <v>0.001039035035372032</v>
+        <v>0.0001846492626262546</v>
       </c>
       <c r="P11">
-        <v>0.001039035035372032</v>
+        <v>0.0001846492626262547</v>
       </c>
       <c r="Q11">
-        <v>0.2257556959124444</v>
+        <v>0.04310641642144445</v>
       </c>
       <c r="R11">
-        <v>2.031801263212</v>
+        <v>0.387957747793</v>
       </c>
       <c r="S11">
-        <v>6.478660105760791E-05</v>
+        <v>1.507593502203771E-05</v>
       </c>
       <c r="T11">
-        <v>6.47866010576079E-05</v>
+        <v>1.507593502203771E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.111053</v>
       </c>
       <c r="I12">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J12">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>31.06110666666667</v>
+        <v>34.74617266666667</v>
       </c>
       <c r="N12">
-        <v>93.18332000000001</v>
+        <v>104.238518</v>
       </c>
       <c r="O12">
-        <v>0.4341659082002268</v>
+        <v>0.4520223922865497</v>
       </c>
       <c r="P12">
-        <v>0.4341659082002268</v>
+        <v>0.4520223922865497</v>
       </c>
       <c r="Q12">
-        <v>94.33312969288447</v>
+        <v>105.5247402377171</v>
       </c>
       <c r="R12">
-        <v>848.9981672359601</v>
+        <v>949.722662139454</v>
       </c>
       <c r="S12">
-        <v>0.02707140041462672</v>
+        <v>0.03690597036616115</v>
       </c>
       <c r="T12">
-        <v>0.02707140041462672</v>
+        <v>0.03690597036616116</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.111053</v>
       </c>
       <c r="I13">
-        <v>0.06235266266494155</v>
+        <v>0.08164633211968274</v>
       </c>
       <c r="J13">
-        <v>0.06235266266494154</v>
+        <v>0.08164633211968275</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.56635666666667</v>
+        <v>22.288414</v>
       </c>
       <c r="N13">
-        <v>58.69907</v>
+        <v>66.86524199999999</v>
       </c>
       <c r="O13">
-        <v>0.2734946022212847</v>
+        <v>0.2899560280553785</v>
       </c>
       <c r="P13">
-        <v>0.2734946022212847</v>
+        <v>0.2899560280553785</v>
       </c>
       <c r="Q13">
-        <v>59.42337086896779</v>
+        <v>67.69030707998067</v>
       </c>
       <c r="R13">
-        <v>534.8103378207099</v>
+        <v>609.2127637198259</v>
       </c>
       <c r="S13">
-        <v>0.01705311667298614</v>
+        <v>0.02367384616671348</v>
       </c>
       <c r="T13">
-        <v>0.01705311667298614</v>
+        <v>0.02367384616671349</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H14">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I14">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J14">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.012411</v>
+        <v>0.1537606666666667</v>
       </c>
       <c r="N14">
-        <v>0.037233</v>
+        <v>0.461282</v>
       </c>
       <c r="O14">
-        <v>0.0001734784643863198</v>
+        <v>0.002000314251961297</v>
       </c>
       <c r="P14">
-        <v>0.0001734784643863198</v>
+        <v>0.002000314251961298</v>
       </c>
       <c r="Q14">
-        <v>0.06150018279300001</v>
+        <v>0.5095668983642222</v>
       </c>
       <c r="R14">
-        <v>0.5535016451370001</v>
+        <v>4.586102085278</v>
       </c>
       <c r="S14">
-        <v>1.764911308871397E-05</v>
+        <v>0.0001782147087805376</v>
       </c>
       <c r="T14">
-        <v>1.764911308871397E-05</v>
+        <v>0.0001782147087805377</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H15">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I15">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J15">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.264115</v>
       </c>
       <c r="O15">
-        <v>0.001230582134702894</v>
+        <v>0.001145314576889534</v>
       </c>
       <c r="P15">
-        <v>0.001230582134702894</v>
+        <v>0.001145314576889534</v>
       </c>
       <c r="Q15">
-        <v>0.4362560303594445</v>
+        <v>0.2917613550094444</v>
       </c>
       <c r="R15">
-        <v>3.926304273235</v>
+        <v>2.625852195085</v>
       </c>
       <c r="S15">
-        <v>0.0001251952704167188</v>
+        <v>0.0001020399187689346</v>
       </c>
       <c r="T15">
-        <v>0.0001251952704167188</v>
+        <v>0.0001020399187689346</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H16">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I16">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J16">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.739774</v>
+        <v>19.577676</v>
       </c>
       <c r="N16">
-        <v>62.219322</v>
+        <v>58.733028</v>
       </c>
       <c r="O16">
-        <v>0.2898963939440272</v>
+        <v>0.2546913015665947</v>
       </c>
       <c r="P16">
-        <v>0.2898963939440272</v>
+        <v>0.2546913015665947</v>
       </c>
       <c r="Q16">
-        <v>102.771726056362</v>
+        <v>64.88093380946799</v>
       </c>
       <c r="R16">
-        <v>924.945534507258</v>
+        <v>583.928404285212</v>
       </c>
       <c r="S16">
-        <v>0.02949308007093463</v>
+        <v>0.02269130267562828</v>
       </c>
       <c r="T16">
-        <v>0.02949308007093463</v>
+        <v>0.02269130267562828</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H17">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I17">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J17">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.07433466666666666</v>
+        <v>0.01419366666666667</v>
       </c>
       <c r="N17">
-        <v>0.223004</v>
+        <v>0.042581</v>
       </c>
       <c r="O17">
-        <v>0.001039035035372032</v>
+        <v>0.0001846492626262546</v>
       </c>
       <c r="P17">
-        <v>0.001039035035372032</v>
+        <v>0.0001846492626262547</v>
       </c>
       <c r="Q17">
-        <v>0.3683503011728889</v>
+        <v>0.04703818509988889</v>
       </c>
       <c r="R17">
-        <v>3.315152710556</v>
+        <v>0.423343665899</v>
       </c>
       <c r="S17">
-        <v>0.0001057079154308159</v>
+        <v>1.645102239971226E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001057079154308159</v>
+        <v>1.645102239971227E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H18">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I18">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J18">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>31.06110666666667</v>
+        <v>34.74617266666667</v>
       </c>
       <c r="N18">
-        <v>93.18332000000001</v>
+        <v>104.238518</v>
       </c>
       <c r="O18">
-        <v>0.4341659082002268</v>
+        <v>0.4520223922865497</v>
       </c>
       <c r="P18">
-        <v>0.4341659082002268</v>
+        <v>0.4520223922865497</v>
       </c>
       <c r="Q18">
-        <v>153.9169879746089</v>
+        <v>115.1497311998802</v>
       </c>
       <c r="R18">
-        <v>1385.25289177148</v>
+        <v>1036.347580798922</v>
       </c>
       <c r="S18">
-        <v>0.04417057321896765</v>
+        <v>0.04027219169420187</v>
       </c>
       <c r="T18">
-        <v>0.04417057321896764</v>
+        <v>0.04027219169420188</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.955296333333334</v>
+        <v>3.314026333333333</v>
       </c>
       <c r="H19">
-        <v>14.865889</v>
+        <v>9.942079</v>
       </c>
       <c r="I19">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941511</v>
       </c>
       <c r="J19">
-        <v>0.101736622762645</v>
+        <v>0.08909335550941513</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.56635666666667</v>
+        <v>22.288414</v>
       </c>
       <c r="N19">
-        <v>58.69907</v>
+        <v>66.86524199999999</v>
       </c>
       <c r="O19">
-        <v>0.2734946022212847</v>
+        <v>0.2899560280553785</v>
       </c>
       <c r="P19">
-        <v>0.2734946022212847</v>
+        <v>0.2899560280553785</v>
       </c>
       <c r="Q19">
-        <v>96.95709544702557</v>
+        <v>73.86439092423532</v>
       </c>
       <c r="R19">
-        <v>872.61385902323</v>
+        <v>664.7795183181179</v>
       </c>
       <c r="S19">
-        <v>0.0278244171738065</v>
+        <v>0.02583315548963578</v>
       </c>
       <c r="T19">
-        <v>0.02782441717380649</v>
+        <v>0.02583315548963579</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.604947</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H20">
-        <v>37.814841</v>
+        <v>18.970717</v>
       </c>
       <c r="I20">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J20">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.012411</v>
+        <v>0.1537606666666667</v>
       </c>
       <c r="N20">
-        <v>0.037233</v>
+        <v>0.461282</v>
       </c>
       <c r="O20">
-        <v>0.0001734784643863198</v>
+        <v>0.002000314251961297</v>
       </c>
       <c r="P20">
-        <v>0.0001734784643863198</v>
+        <v>0.002000314251961298</v>
       </c>
       <c r="Q20">
-        <v>0.156439997217</v>
+        <v>0.9723166976882224</v>
       </c>
       <c r="R20">
-        <v>1.407959974953</v>
+        <v>8.750850279194001</v>
       </c>
       <c r="S20">
-        <v>4.489461782209847E-05</v>
+        <v>0.0003400557172713066</v>
       </c>
       <c r="T20">
-        <v>4.489461782209847E-05</v>
+        <v>0.0003400557172713067</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.604947</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H21">
-        <v>37.814841</v>
+        <v>18.970717</v>
       </c>
       <c r="I21">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J21">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.264115</v>
       </c>
       <c r="O21">
-        <v>0.001230582134702894</v>
+        <v>0.001145314576889534</v>
       </c>
       <c r="P21">
-        <v>0.001230582134702894</v>
+        <v>0.001145314576889534</v>
       </c>
       <c r="Q21">
-        <v>1.109718525635</v>
+        <v>0.5567167689394444</v>
       </c>
       <c r="R21">
-        <v>9.987466730714999</v>
+        <v>5.010450920455</v>
       </c>
       <c r="S21">
-        <v>0.0003184632445970923</v>
+        <v>0.0001947047917913795</v>
       </c>
       <c r="T21">
-        <v>0.0003184632445970923</v>
+        <v>0.0001947047917913796</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.604947</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H22">
-        <v>37.814841</v>
+        <v>18.970717</v>
       </c>
       <c r="I22">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J22">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.739774</v>
+        <v>19.577676</v>
       </c>
       <c r="N22">
-        <v>62.219322</v>
+        <v>58.733028</v>
       </c>
       <c r="O22">
-        <v>0.2898963939440272</v>
+        <v>0.2546913015665947</v>
       </c>
       <c r="P22">
-        <v>0.2898963939440272</v>
+        <v>0.2546913015665947</v>
       </c>
       <c r="Q22">
-        <v>261.423752061978</v>
+        <v>123.800850304564</v>
       </c>
       <c r="R22">
-        <v>2352.813768557802</v>
+        <v>1114.207652741076</v>
       </c>
       <c r="S22">
-        <v>0.07502249838423129</v>
+        <v>0.04329781340710397</v>
       </c>
       <c r="T22">
-        <v>0.07502249838423128</v>
+        <v>0.04329781340710398</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.604947</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H23">
-        <v>37.814841</v>
+        <v>18.970717</v>
       </c>
       <c r="I23">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J23">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.07433466666666666</v>
+        <v>0.01419366666666667</v>
       </c>
       <c r="N23">
-        <v>0.223004</v>
+        <v>0.042581</v>
       </c>
       <c r="O23">
-        <v>0.001039035035372032</v>
+        <v>0.0001846492626262546</v>
       </c>
       <c r="P23">
-        <v>0.001039035035372032</v>
+        <v>0.0001846492626262547</v>
       </c>
       <c r="Q23">
-        <v>0.936984533596</v>
+        <v>0.0897546778418889</v>
       </c>
       <c r="R23">
-        <v>8.432860802363999</v>
+        <v>0.807792100577</v>
       </c>
       <c r="S23">
-        <v>0.0002688926316117221</v>
+        <v>3.139058644631593E-05</v>
       </c>
       <c r="T23">
-        <v>0.000268892631611722</v>
+        <v>3.139058644631594E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.604947</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H24">
-        <v>37.814841</v>
+        <v>18.970717</v>
       </c>
       <c r="I24">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J24">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>31.06110666666667</v>
+        <v>34.74617266666667</v>
       </c>
       <c r="N24">
-        <v>93.18332000000001</v>
+        <v>104.238518</v>
       </c>
       <c r="O24">
-        <v>0.4341659082002268</v>
+        <v>0.4520223922865497</v>
       </c>
       <c r="P24">
-        <v>0.4341659082002268</v>
+        <v>0.4520223922865497</v>
       </c>
       <c r="Q24">
-        <v>391.5236032946801</v>
+        <v>219.7199361641562</v>
       </c>
       <c r="R24">
-        <v>3523.712429652121</v>
+        <v>1977.479425477406</v>
       </c>
       <c r="S24">
-        <v>0.1123581107832919</v>
+        <v>0.07684432517589673</v>
       </c>
       <c r="T24">
-        <v>0.1123581107832918</v>
+        <v>0.07684432517589676</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.604947</v>
+        <v>6.323572333333334</v>
       </c>
       <c r="H25">
-        <v>37.814841</v>
+        <v>18.970717</v>
       </c>
       <c r="I25">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387134</v>
       </c>
       <c r="J25">
-        <v>0.2587907264507627</v>
+        <v>0.1700011470387135</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.56635666666667</v>
+        <v>22.288414</v>
       </c>
       <c r="N25">
-        <v>58.69907</v>
+        <v>66.86524199999999</v>
       </c>
       <c r="O25">
-        <v>0.2734946022212847</v>
+        <v>0.2899560280553785</v>
       </c>
       <c r="P25">
-        <v>0.2734946022212847</v>
+        <v>0.2899560280553785</v>
       </c>
       <c r="Q25">
-        <v>246.63288876643</v>
+        <v>140.9423981242794</v>
       </c>
       <c r="R25">
-        <v>2219.69599889787</v>
+        <v>1268.481583118514</v>
       </c>
       <c r="S25">
-        <v>0.07077786678920867</v>
+        <v>0.04929285736020372</v>
       </c>
       <c r="T25">
-        <v>0.07077786678920864</v>
+        <v>0.04929285736020373</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.159083666666667</v>
+        <v>7.673238</v>
       </c>
       <c r="H26">
-        <v>15.477251</v>
+        <v>23.019714</v>
       </c>
       <c r="I26">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J26">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.012411</v>
+        <v>0.1537606666666667</v>
       </c>
       <c r="N26">
-        <v>0.037233</v>
+        <v>0.461282</v>
       </c>
       <c r="O26">
-        <v>0.0001734784643863198</v>
+        <v>0.002000314251961297</v>
       </c>
       <c r="P26">
-        <v>0.0001734784643863198</v>
+        <v>0.002000314251961298</v>
       </c>
       <c r="Q26">
-        <v>0.06402938738699999</v>
+        <v>1.179842190372</v>
       </c>
       <c r="R26">
-        <v>0.5762644864830001</v>
+        <v>10.618579713348</v>
       </c>
       <c r="S26">
-        <v>1.837493561275826E-05</v>
+        <v>0.0004126351869383924</v>
       </c>
       <c r="T26">
-        <v>1.837493561275827E-05</v>
+        <v>0.0004126351869383925</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.159083666666667</v>
+        <v>7.673238</v>
       </c>
       <c r="H27">
-        <v>15.477251</v>
+        <v>23.019714</v>
       </c>
       <c r="I27">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J27">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.264115</v>
       </c>
       <c r="O27">
-        <v>0.001230582134702894</v>
+        <v>0.001145314576889534</v>
       </c>
       <c r="P27">
-        <v>0.001230582134702894</v>
+        <v>0.001145314576889534</v>
       </c>
       <c r="Q27">
-        <v>0.4541971275405555</v>
+        <v>0.67553908479</v>
       </c>
       <c r="R27">
-        <v>4.087774147865</v>
+        <v>6.07985176311</v>
       </c>
       <c r="S27">
-        <v>0.0001303439454076665</v>
+        <v>0.0002362614244610314</v>
       </c>
       <c r="T27">
-        <v>0.0001303439454076665</v>
+        <v>0.0002362614244610315</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.159083666666667</v>
+        <v>7.673238</v>
       </c>
       <c r="H28">
-        <v>15.477251</v>
+        <v>23.019714</v>
       </c>
       <c r="I28">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J28">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>20.739774</v>
+        <v>19.577676</v>
       </c>
       <c r="N28">
-        <v>62.219322</v>
+        <v>58.733028</v>
       </c>
       <c r="O28">
-        <v>0.2898963939440272</v>
+        <v>0.2546913015665947</v>
       </c>
       <c r="P28">
-        <v>0.2898963939440272</v>
+        <v>0.2546913015665947</v>
       </c>
       <c r="Q28">
-        <v>106.998229293758</v>
+        <v>150.224167434888</v>
       </c>
       <c r="R28">
-        <v>962.984063643822</v>
+        <v>1352.017506913992</v>
       </c>
       <c r="S28">
-        <v>0.03070598758143243</v>
+        <v>0.05253904116839121</v>
       </c>
       <c r="T28">
-        <v>0.03070598758143243</v>
+        <v>0.05253904116839122</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.159083666666667</v>
+        <v>7.673238</v>
       </c>
       <c r="H29">
-        <v>15.477251</v>
+        <v>23.019714</v>
       </c>
       <c r="I29">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J29">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.07433466666666666</v>
+        <v>0.01419366666666667</v>
       </c>
       <c r="N29">
-        <v>0.223004</v>
+        <v>0.042581</v>
       </c>
       <c r="O29">
-        <v>0.001039035035372032</v>
+        <v>0.0001846492626262546</v>
       </c>
       <c r="P29">
-        <v>0.001039035035372032</v>
+        <v>0.0001846492626262547</v>
       </c>
       <c r="Q29">
-        <v>0.3834987646671111</v>
+        <v>0.108911382426</v>
       </c>
       <c r="R29">
-        <v>3.451488882004</v>
+        <v>0.9802024418340001</v>
       </c>
       <c r="S29">
-        <v>0.0001100551699134516</v>
+        <v>3.80904065084345E-05</v>
       </c>
       <c r="T29">
-        <v>0.0001100551699134516</v>
+        <v>3.809040650843452E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.159083666666667</v>
+        <v>7.673238</v>
       </c>
       <c r="H30">
-        <v>15.477251</v>
+        <v>23.019714</v>
       </c>
       <c r="I30">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J30">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>31.06110666666667</v>
+        <v>34.74617266666667</v>
       </c>
       <c r="N30">
-        <v>93.18332000000001</v>
+        <v>104.238518</v>
       </c>
       <c r="O30">
-        <v>0.4341659082002268</v>
+        <v>0.4520223922865497</v>
       </c>
       <c r="P30">
-        <v>0.4341659082002268</v>
+        <v>0.4520223922865497</v>
       </c>
       <c r="Q30">
-        <v>160.2468480725911</v>
+        <v>266.615652460428</v>
       </c>
       <c r="R30">
-        <v>1442.22163265332</v>
+        <v>2399.540872143852</v>
       </c>
       <c r="S30">
-        <v>0.04598709492071683</v>
+        <v>0.09324552087684101</v>
       </c>
       <c r="T30">
-        <v>0.04598709492071683</v>
+        <v>0.09324552087684103</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.159083666666667</v>
+        <v>7.673238</v>
       </c>
       <c r="H31">
-        <v>15.477251</v>
+        <v>23.019714</v>
       </c>
       <c r="I31">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="J31">
-        <v>0.1059205572159035</v>
+        <v>0.2062851807078842</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.56635666666667</v>
+        <v>22.288414</v>
       </c>
       <c r="N31">
-        <v>58.69907</v>
+        <v>66.86524199999999</v>
       </c>
       <c r="O31">
-        <v>0.2734946022212847</v>
+        <v>0.2899560280553785</v>
       </c>
       <c r="P31">
-        <v>0.2734946022212847</v>
+        <v>0.2899560280553785</v>
       </c>
       <c r="Q31">
-        <v>100.9444710951744</v>
+        <v>171.024305264532</v>
       </c>
       <c r="R31">
-        <v>908.50023985657</v>
+        <v>1539.218747380788</v>
       </c>
       <c r="S31">
-        <v>0.02896870066282036</v>
+        <v>0.05981363164474409</v>
       </c>
       <c r="T31">
-        <v>0.02896870066282035</v>
+        <v>0.0598136316447441</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.897008666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H32">
-        <v>17.691026</v>
+        <v>4.327499</v>
       </c>
       <c r="I32">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J32">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M32">
-        <v>0.012411</v>
+        <v>0.1537606666666667</v>
       </c>
       <c r="N32">
-        <v>0.037233</v>
+        <v>0.461282</v>
       </c>
       <c r="O32">
-        <v>0.0001734784643863198</v>
+        <v>0.002000314251961297</v>
       </c>
       <c r="P32">
-        <v>0.0001734784643863198</v>
+        <v>0.002000314251961298</v>
       </c>
       <c r="Q32">
-        <v>0.07318777456200001</v>
+        <v>0.2217997104131111</v>
       </c>
       <c r="R32">
-        <v>0.6586899710580001</v>
+        <v>1.996197393718</v>
       </c>
       <c r="S32">
-        <v>2.100317838572447E-05</v>
+        <v>7.757170044948022E-05</v>
       </c>
       <c r="T32">
-        <v>2.100317838572447E-05</v>
+        <v>7.757170044948026E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.897008666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H33">
-        <v>17.691026</v>
+        <v>4.327499</v>
       </c>
       <c r="I33">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J33">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>0.264115</v>
       </c>
       <c r="O33">
-        <v>0.001230582134702894</v>
+        <v>0.001145314576889534</v>
       </c>
       <c r="P33">
-        <v>0.001230582134702894</v>
+        <v>0.001145314576889534</v>
       </c>
       <c r="Q33">
-        <v>0.5191628146655556</v>
+        <v>0.1269952664872222</v>
       </c>
       <c r="R33">
-        <v>4.67246533199</v>
+        <v>1.142957398385</v>
       </c>
       <c r="S33">
-        <v>0.0001489875771317277</v>
+        <v>4.441502088573685E-05</v>
       </c>
       <c r="T33">
-        <v>0.0001489875771317277</v>
+        <v>4.441502088573687E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.897008666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H34">
-        <v>17.691026</v>
+        <v>4.327499</v>
       </c>
       <c r="I34">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J34">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>20.739774</v>
+        <v>19.577676</v>
       </c>
       <c r="N34">
-        <v>62.219322</v>
+        <v>58.733028</v>
       </c>
       <c r="O34">
-        <v>0.2898963939440272</v>
+        <v>0.2546913015665947</v>
       </c>
       <c r="P34">
-        <v>0.2898963939440272</v>
+        <v>0.2546913015665947</v>
       </c>
       <c r="Q34">
-        <v>122.302627022708</v>
+        <v>28.240791104108</v>
       </c>
       <c r="R34">
-        <v>1100.723643204372</v>
+        <v>254.167119936972</v>
       </c>
       <c r="S34">
-        <v>0.03509799153989286</v>
+        <v>0.00987686676373007</v>
       </c>
       <c r="T34">
-        <v>0.03509799153989286</v>
+        <v>0.009876866763730074</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,46 +2589,46 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.897008666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H35">
-        <v>17.691026</v>
+        <v>4.327499</v>
       </c>
       <c r="I35">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J35">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M35">
-        <v>0.07433466666666666</v>
+        <v>0.01419366666666667</v>
       </c>
       <c r="N35">
-        <v>0.223004</v>
+        <v>0.042581</v>
       </c>
       <c r="O35">
-        <v>0.001039035035372032</v>
+        <v>0.0001846492626262546</v>
       </c>
       <c r="P35">
-        <v>0.001039035035372032</v>
+        <v>0.0001846492626262547</v>
       </c>
       <c r="Q35">
-        <v>0.4383521735671111</v>
+        <v>0.02047435943544445</v>
       </c>
       <c r="R35">
-        <v>3.945169562104</v>
+        <v>0.184269234919</v>
       </c>
       <c r="S35">
-        <v>0.0001257968144584132</v>
+        <v>7.160653519624258E-06</v>
       </c>
       <c r="T35">
-        <v>0.0001257968144584132</v>
+        <v>7.160653519624261E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.897008666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H36">
-        <v>17.691026</v>
+        <v>4.327499</v>
       </c>
       <c r="I36">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J36">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>31.06110666666667</v>
+        <v>34.74617266666667</v>
       </c>
       <c r="N36">
-        <v>93.18332000000001</v>
+        <v>104.238518</v>
       </c>
       <c r="O36">
-        <v>0.4341659082002268</v>
+        <v>0.4520223922865497</v>
       </c>
       <c r="P36">
-        <v>0.4341659082002268</v>
+        <v>0.4520223922865497</v>
       </c>
       <c r="Q36">
-        <v>183.1676152095912</v>
+        <v>50.12134248960911</v>
       </c>
       <c r="R36">
-        <v>1648.50853688632</v>
+        <v>451.0920824064821</v>
       </c>
       <c r="S36">
-        <v>0.05256481864297926</v>
+        <v>0.01752931849409635</v>
       </c>
       <c r="T36">
-        <v>0.05256481864297926</v>
+        <v>0.01752931849409635</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.897008666666667</v>
+        <v>1.442499666666667</v>
       </c>
       <c r="H37">
-        <v>17.691026</v>
+        <v>4.327499</v>
       </c>
       <c r="I37">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740514</v>
       </c>
       <c r="J37">
-        <v>0.1210708110659339</v>
+        <v>0.03877975691740516</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.56635666666667</v>
+        <v>22.288414</v>
       </c>
       <c r="N37">
-        <v>58.69907</v>
+        <v>66.86524199999999</v>
       </c>
       <c r="O37">
-        <v>0.2734946022212847</v>
+        <v>0.2899560280553785</v>
       </c>
       <c r="P37">
-        <v>0.2734946022212847</v>
+        <v>0.2899560280553785</v>
       </c>
       <c r="Q37">
-        <v>115.3829748384245</v>
+        <v>32.15102976552867</v>
       </c>
       <c r="R37">
-        <v>1038.44677354582</v>
+        <v>289.359267889758</v>
       </c>
       <c r="S37">
-        <v>0.03311221331308591</v>
+        <v>0.01124442428472388</v>
       </c>
       <c r="T37">
-        <v>0.0331122133130859</v>
+        <v>0.01124442428472389</v>
       </c>
     </row>
   </sheetData>
